--- a/apdGraphs.xlsx
+++ b/apdGraphs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silver\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\silver\code\apd\epidemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A9F37EE-6E55-4DA8-BD99-E4F5C536AF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBDE8FD-49C7-4206-9823-AC4F45681F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{095F73A3-A29E-441B-B656-D48CBF27A211}"/>
   </bookViews>
@@ -2813,7 +2813,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>100k</a:t>
+              <a:t>500K</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3980,8 +3980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544FCD7-003D-4DBF-96F3-AEF21B8581CD}">
   <dimension ref="A1:F226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AO21" sqref="AO21"/>
+    <sheetView tabSelected="1" topLeftCell="C145" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AG127" sqref="AG127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/apdGraphs.xlsx
+++ b/apdGraphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\silver\code\apd\epidemic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBDE8FD-49C7-4206-9823-AC4F45681F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB50D973-5143-429C-81BE-E5866E48BA49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{095F73A3-A29E-441B-B656-D48CBF27A211}"/>
   </bookViews>
@@ -3647,7 +3647,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7111F8CF-CCBF-485C-9556-BFC0CE334217}" name="results__2" displayName="results__2" ref="A1:F226" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:F226" xr:uid="{7111F8CF-CCBF-485C-9556-BFC0CE334217}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F226">
-    <sortCondition ref="A1:A226"/>
+    <sortCondition ref="A2:A226"/>
+    <sortCondition ref="B2:B226"/>
+    <sortCondition ref="C2:C226"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{3AD5D6F7-792F-46B5-A1B1-5D257B0A988D}" uniqueName="1" name="populationSize" queryTableFieldId="1"/>
@@ -3980,8 +3982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9544FCD7-003D-4DBF-96F3-AEF21B8581CD}">
   <dimension ref="A1:F226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C145" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AG127" sqref="AG127"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
